--- a/documenten ToolsForEver/normalisatie bijlage b.xlsx
+++ b/documenten ToolsForEver/normalisatie bijlage b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>stap 0</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Stap 3</t>
   </si>
   <si>
-    <t>aantal</t>
-  </si>
-  <si>
     <t>naam</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>product_minimum_aantal</t>
   </si>
   <si>
-    <t>aantal_te_bestellen*</t>
-  </si>
-  <si>
     <t>product_minimum_aantal*</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>minimum_aantal</t>
+  </si>
+  <si>
+    <t>aantal_te_bestellen**</t>
+  </si>
+  <si>
+    <t>product_fabriek*</t>
   </si>
 </sst>
 </file>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -381,6 +381,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -399,7 +403,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -697,22 +700,22 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -720,20 +723,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="53"/>
+      <c r="F1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="49"/>
-      <c r="J1" s="48" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="53"/>
+      <c r="J1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7"/>
@@ -743,11 +746,11 @@
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="J2" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
@@ -758,13 +761,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>11</v>
@@ -773,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="34" t="s">
         <v>11</v>
@@ -797,78 +800,82 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>5</v>
+      <c r="G5" s="50" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="46" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>15</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
-        <v>14</v>
+      <c r="D7" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="28" t="s">
+        <v>1</v>
+      </c>
       <c r="H7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="35"/>
-      <c r="K7" s="36"/>
+      <c r="K7" s="38" t="s">
+        <v>1</v>
+      </c>
       <c r="L7" s="37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -886,7 +893,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="36"/>
       <c r="L8" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -899,17 +906,17 @@
       <c r="F9" s="25"/>
       <c r="G9" s="26"/>
       <c r="H9" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="36"/>
       <c r="L9" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="14"/>
@@ -923,7 +930,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="14"/>
@@ -937,7 +944,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="14"/>
@@ -1087,7 +1094,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1099,7 +1106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documenten ToolsForEver/normalisatie bijlage b.xlsx
+++ b/documenten ToolsForEver/normalisatie bijlage b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>stap 0</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Stap 3</t>
   </si>
   <si>
-    <t>aantal</t>
-  </si>
-  <si>
     <t>naam</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>product_minimum_aantal</t>
   </si>
   <si>
-    <t>aantal_te_bestellen*</t>
-  </si>
-  <si>
     <t>product_minimum_aantal*</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t>minimum_aantal</t>
+  </si>
+  <si>
+    <t>aantal_te_bestellen**</t>
   </si>
 </sst>
 </file>
@@ -332,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -381,6 +378,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -399,7 +397,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -697,22 +697,22 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -720,20 +720,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="49"/>
-      <c r="J1" s="48" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="50"/>
+      <c r="J1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7"/>
@@ -743,11 +743,11 @@
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="J2" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
@@ -758,13 +758,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>11</v>
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="34" t="s">
         <v>11</v>
@@ -797,78 +797,82 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>5</v>
+      <c r="G5" s="56" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="46" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>15</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
-        <v>14</v>
+      <c r="D7" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="28" t="s">
+        <v>1</v>
+      </c>
       <c r="H7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="35"/>
-      <c r="K7" s="36"/>
+      <c r="K7" s="38" t="s">
+        <v>1</v>
+      </c>
       <c r="L7" s="37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -886,7 +890,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="36"/>
       <c r="L8" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -899,12 +903,12 @@
       <c r="F9" s="25"/>
       <c r="G9" s="26"/>
       <c r="H9" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="36"/>
       <c r="L9" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -923,7 +927,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="14"/>
@@ -937,7 +941,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="14"/>
@@ -1087,7 +1091,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1099,7 +1103,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
